--- a/inst/template/NIFUmal_stiler.xlsx
+++ b/inst/template/NIFUmal_stiler.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nifu-my.sharepoint.com/personal/stephan_daus_nifu_no/Documents/surveyreport/inst/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nifu-my.sharepoint.com/personal/stephan_daus_nifu_no/Documents/Github-R/surveyreport/inst/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{75532C2D-13DD-4FB9-BE45-1BBE31BDE4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0DFE9724-32BB-406C-B552-BD63602D4DF1}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{75532C2D-13DD-4FB9-BE45-1BBE31BDE4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE0A8BFD-1444-42F2-A5F6-93B4AA29502D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{0723B0E0-5334-425A-B4EC-7FE15FA1070E}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="23040" windowHeight="12120" xr2:uid="{0723B0E0-5334-425A-B4EC-7FE15FA1070E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="NIFUWordStyles" sheetId="1" r:id="rId1"/>
+    <sheet name="NIFUred" sheetId="2" r:id="rId2"/>
+    <sheet name="NIFUblue" sheetId="3" r:id="rId3"/>
+    <sheet name="NIFUmixed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>surveyreport_style</t>
   </si>
@@ -99,6 +102,147 @@
   </si>
   <si>
     <t>table_body</t>
+  </si>
+  <si>
+    <t>#E8B0B7</t>
+  </si>
+  <si>
+    <t>#BC3848</t>
+  </si>
+  <si>
+    <t>#D5727D</t>
+  </si>
+  <si>
+    <t>#7E2630</t>
+  </si>
+  <si>
+    <t>#C82D49</t>
+  </si>
+  <si>
+    <t>#363636</t>
+  </si>
+  <si>
+    <t>#2D8E9F</t>
+  </si>
+  <si>
+    <t>#E7E6E6</t>
+  </si>
+  <si>
+    <t>grå</t>
+  </si>
+  <si>
+    <t>turkis</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>rød</t>
+  </si>
+  <si>
+    <t>#90D4E0</t>
+  </si>
+  <si>
+    <t>#50BBCE</t>
+  </si>
+  <si>
+    <t>#1B555F</t>
+  </si>
+  <si>
+    <t>#EDE2D2</t>
+  </si>
+  <si>
+    <t>beige</t>
+  </si>
+  <si>
+    <t>#DE919A</t>
+  </si>
+  <si>
+    <t>#9D2F3C</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nifu_blue_1</t>
+  </si>
+  <si>
+    <t>#C84957</t>
+  </si>
+  <si>
+    <t>NIFU Rød</t>
+  </si>
+  <si>
+    <t>NIFU Blå</t>
+  </si>
+  <si>
+    <t>nifu_blue_2</t>
+  </si>
+  <si>
+    <t>nifu_blue_3</t>
+  </si>
+  <si>
+    <t>nifu_blue_4</t>
+  </si>
+  <si>
+    <t>nifu_blue_5</t>
+  </si>
+  <si>
+    <t>nifu_blue_6</t>
+  </si>
+  <si>
+    <t>nifu_blue_7</t>
+  </si>
+  <si>
+    <t>#70C7D7</t>
+  </si>
+  <si>
+    <t>#36AABF</t>
+  </si>
+  <si>
+    <t>#24727F</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>nifu_red_1</t>
+  </si>
+  <si>
+    <t>nifu_red_2</t>
+  </si>
+  <si>
+    <t>nifu_red_3</t>
+  </si>
+  <si>
+    <t>nifu_red_4</t>
+  </si>
+  <si>
+    <t>nifu_red_5</t>
+  </si>
+  <si>
+    <t>nifu_red_6</t>
+  </si>
+  <si>
+    <t>nifu_red_7</t>
+  </si>
+  <si>
+    <t>nifu_mixed_1</t>
+  </si>
+  <si>
+    <t>nifu_mixed_2</t>
+  </si>
+  <si>
+    <t>nifu_mixed_3</t>
+  </si>
+  <si>
+    <t>nifu_mixed_4</t>
+  </si>
+  <si>
+    <t>nifu_mixed_5</t>
   </si>
 </sst>
 </file>
@@ -140,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,9 +607,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -480,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -488,7 +633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -496,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -504,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -512,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -520,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -528,7 +673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -536,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -544,12 +689,272 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6309C866-9DFF-44E9-BDC4-AF6BF847B63F}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A131EE-9A51-418F-946A-7D880AB8F9D2}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B4CEF8-492E-4D1D-ADA6-915987B3655C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
